--- a/Transaction_data_7.19.xlsx
+++ b/Transaction_data_7.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurora\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4531C19-6069-471A-AB7B-B94DE8784790}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28C5AD-2597-4398-B35D-4803E4F9249E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1319">
   <si>
     <t>Year</t>
   </si>
@@ -3898,6 +3898,99 @@
   </si>
   <si>
     <t>阳阳</t>
+  </si>
+  <si>
+    <t>蓝光</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>DW粉底</t>
+  </si>
+  <si>
+    <t>1n1</t>
+  </si>
+  <si>
+    <t>远驰</t>
+  </si>
+  <si>
+    <t>Lancome</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>粉色</t>
+  </si>
+  <si>
+    <t>专柜水桶包</t>
+  </si>
+  <si>
+    <t>隔离A色</t>
+  </si>
+  <si>
+    <t>sephora</t>
+  </si>
+  <si>
+    <t>礼盒</t>
+  </si>
+  <si>
+    <t>丝芙兰套盒</t>
+  </si>
+  <si>
+    <t>三件套</t>
+  </si>
+  <si>
+    <t>折腾</t>
+  </si>
+  <si>
+    <t>disney包</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>便宜</t>
+  </si>
+  <si>
+    <t>南佛小镇</t>
+  </si>
+  <si>
+    <t>白色波士顿</t>
+  </si>
+  <si>
+    <t>鱼子酱洗发水</t>
+  </si>
+  <si>
+    <t>gnc</t>
+  </si>
+  <si>
+    <t>挪威小鱼</t>
+  </si>
+  <si>
+    <t>香水套装</t>
+  </si>
+  <si>
+    <t>马司令</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>爆水面霜</t>
+  </si>
+  <si>
+    <t>olay三件套白瓶</t>
+  </si>
+  <si>
+    <t>转运中国运费去西雅图</t>
+  </si>
+  <si>
+    <t>竹林</t>
+  </si>
+  <si>
+    <t>衣服L</t>
   </si>
 </sst>
 </file>
@@ -4399,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R319"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E295" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="94" workbookViewId="0">
+      <selection activeCell="K318" sqref="K318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10880,6 +10973,9 @@
       <c r="K307">
         <v>200</v>
       </c>
+      <c r="M307">
+        <v>179</v>
+      </c>
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="1">
@@ -10965,35 +11061,546 @@
       <c r="A313" s="1">
         <v>311</v>
       </c>
+      <c r="C313">
+        <v>7</v>
+      </c>
+      <c r="D313">
+        <v>27</v>
+      </c>
+      <c r="E313" t="s">
+        <v>36</v>
+      </c>
+      <c r="F313" t="s">
+        <v>30</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I313" t="s">
+        <v>83</v>
+      </c>
+      <c r="K313">
+        <v>690</v>
+      </c>
+      <c r="M313">
+        <v>499</v>
+      </c>
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="1">
         <v>312</v>
       </c>
+      <c r="E314" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F314" t="s">
+        <v>16</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I314" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K314">
+        <v>650</v>
+      </c>
+      <c r="M314">
+        <f>467.5+8</f>
+        <v>475.5</v>
+      </c>
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="1">
         <v>313</v>
       </c>
+      <c r="E315" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F315" t="s">
+        <v>16</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K315">
+        <v>430</v>
+      </c>
+      <c r="L315">
+        <v>62</v>
+      </c>
+      <c r="M315">
+        <f>L315*0.8*0.9*6.88</f>
+        <v>307.1232</v>
+      </c>
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="1">
         <v>314</v>
       </c>
+      <c r="E316" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K316">
+        <v>430</v>
+      </c>
+      <c r="M316">
+        <v>390</v>
+      </c>
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="1">
         <v>315</v>
       </c>
+      <c r="E317" t="s">
+        <v>39</v>
+      </c>
+      <c r="F317" t="s">
+        <v>37</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H317" t="s">
+        <v>400</v>
+      </c>
+      <c r="K317">
+        <v>197</v>
+      </c>
+      <c r="M317">
+        <v>175</v>
+      </c>
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="1">
         <v>316</v>
       </c>
+      <c r="E318" t="s">
+        <v>39</v>
+      </c>
+      <c r="F318" t="s">
+        <v>37</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H318" t="s">
+        <v>387</v>
+      </c>
+      <c r="I318" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K318">
+        <v>249</v>
+      </c>
+      <c r="M318">
+        <v>210</v>
+      </c>
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="1">
         <v>317</v>
+      </c>
+      <c r="E319" t="s">
+        <v>39</v>
+      </c>
+      <c r="F319" t="s">
+        <v>37</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K319">
+        <v>290</v>
+      </c>
+      <c r="M319">
+        <f>250+8</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="H320" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L320">
+        <f>-9</f>
+        <v>-9</v>
+      </c>
+      <c r="M320">
+        <f>L320*6.88</f>
+        <v>-61.92</v>
+      </c>
+    </row>
+    <row r="321" spans="3:13">
+      <c r="G321" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H321">
+        <v>405</v>
+      </c>
+      <c r="K321">
+        <v>220</v>
+      </c>
+      <c r="M321">
+        <f>209</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="323" spans="3:13">
+      <c r="C323">
+        <v>7</v>
+      </c>
+      <c r="D323">
+        <v>28</v>
+      </c>
+      <c r="E323" t="s">
+        <v>998</v>
+      </c>
+      <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="H323" t="s">
+        <v>400</v>
+      </c>
+      <c r="K323">
+        <v>200</v>
+      </c>
+      <c r="M323">
+        <f>175+8</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="324" spans="3:13">
+      <c r="F324" t="s">
+        <v>30</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K324">
+        <v>269</v>
+      </c>
+      <c r="M324">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="325" spans="3:13">
+      <c r="E325" t="s">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>30</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K325">
+        <v>189</v>
+      </c>
+      <c r="M325">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="326" spans="3:13">
+      <c r="F326" t="s">
+        <v>30</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H326" t="s">
+        <v>579</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K326">
+        <v>90</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="3:13">
+      <c r="E327" t="s">
+        <v>39</v>
+      </c>
+      <c r="F327" t="s">
+        <v>37</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K327">
+        <v>1799</v>
+      </c>
+      <c r="M327">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="328" spans="3:13">
+      <c r="F328" t="s">
+        <v>30</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K328">
+        <v>490</v>
+      </c>
+      <c r="M328">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="329" spans="3:13">
+      <c r="F329" t="s">
+        <v>30</v>
+      </c>
+      <c r="H329" t="s">
+        <v>400</v>
+      </c>
+      <c r="K329">
+        <v>200</v>
+      </c>
+      <c r="M329">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="330" spans="3:13">
+      <c r="E330" t="s">
+        <v>39</v>
+      </c>
+      <c r="F330" t="s">
+        <v>37</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K330">
+        <v>109</v>
+      </c>
+      <c r="M330">
+        <f>61.92+7</f>
+        <v>68.92</v>
+      </c>
+    </row>
+    <row r="331" spans="3:13">
+      <c r="E331" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F331" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331" t="s">
+        <v>254</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K331">
+        <f>650*5</f>
+        <v>3250</v>
+      </c>
+      <c r="M331">
+        <f>550.8*5</f>
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="332" spans="3:13">
+      <c r="E332" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F332" t="s">
+        <v>30</v>
+      </c>
+      <c r="G332" t="s">
+        <v>254</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K332">
+        <f>1800*2</f>
+        <v>3600</v>
+      </c>
+      <c r="L332">
+        <f>270</f>
+        <v>270</v>
+      </c>
+      <c r="M332">
+        <f>L332*0.75*6.88*2</f>
+        <v>2786.4</v>
+      </c>
+    </row>
+    <row r="333" spans="3:13">
+      <c r="E333" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F333" t="s">
+        <v>30</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K333">
+        <v>850</v>
+      </c>
+      <c r="M333">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="334" spans="3:13">
+      <c r="E334" t="s">
+        <v>39</v>
+      </c>
+      <c r="F334" t="s">
+        <v>37</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K334">
+        <v>109</v>
+      </c>
+      <c r="M334">
+        <f>61.92+7</f>
+        <v>68.92</v>
+      </c>
+    </row>
+    <row r="335" spans="3:13">
+      <c r="E335" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K335">
+        <v>300</v>
+      </c>
+      <c r="M335">
+        <f>249+7</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="336" spans="3:13">
+      <c r="F336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K336">
+        <v>275</v>
+      </c>
+      <c r="M336">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="337" spans="5:13">
+      <c r="E337" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K337">
+        <v>300</v>
+      </c>
+      <c r="M337">
+        <f>13.7*0.78*0.85*6.88*2+8</f>
+        <v>132.98345599999999</v>
+      </c>
+    </row>
+    <row r="338" spans="5:13">
+      <c r="E338" t="s">
+        <v>322</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K338">
+        <v>199</v>
+      </c>
+      <c r="M338">
+        <f>16*6.8</f>
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="1048576" spans="6:6">
+      <c r="F1048576" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -34675,10 +35282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF81EEB1-9FFA-4170-A405-5905318AB95B}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -35376,7 +35983,7 @@
         <v>271.76</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:10">
       <c r="A66" s="9">
         <v>43663</v>
       </c>
@@ -35394,7 +36001,7 @@
         <v>526.31999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:10">
       <c r="C67" t="s">
         <v>1280</v>
       </c>
@@ -35406,7 +36013,7 @@
         <v>526.31999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:10">
       <c r="C68" t="s">
         <v>1281</v>
       </c>
@@ -35418,7 +36025,7 @@
         <v>66.73599999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:10">
       <c r="C69" t="s">
         <v>1281</v>
       </c>
@@ -35430,7 +36037,7 @@
         <v>66.73599999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:10">
       <c r="A71" s="9">
         <v>43663</v>
       </c>
@@ -35448,7 +36055,7 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:10">
       <c r="C72" t="s">
         <v>1284</v>
       </c>
@@ -35460,7 +36067,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:10">
       <c r="C73" t="s">
         <v>1282</v>
       </c>
@@ -35472,7 +36079,7 @@
         <v>72.239999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:10">
       <c r="C74" t="s">
         <v>1283</v>
       </c>
@@ -35484,10 +36091,56 @@
         <v>99.76</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:10">
       <c r="D76">
         <f>SUM(D71:D74)</f>
         <v>93.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="9">
+        <v>43630</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>61.92</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="J78">
+        <v>72.924166670000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="9">
+        <v>43620</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>61.92</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79">
+        <v>199.5</v>
+      </c>
+      <c r="J79">
+        <v>75.22</v>
       </c>
     </row>
   </sheetData>

--- a/Transaction_data_7.19.xlsx
+++ b/Transaction_data_7.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurora\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanda/Documents/LXLZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28C5AD-2597-4398-B35D-4803E4F9249E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FC336-EE42-C64F-BCBB-A6D59F5FB38F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="1319">
   <si>
     <t>Year</t>
   </si>
@@ -4492,18 +4492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:R338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K318" sqref="K318"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F1048566" sqref="F1048566"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="7" max="7" width="29.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11596,11 +11596,6 @@
       <c r="M338">
         <f>16*6.8</f>
         <v>108.8</v>
-      </c>
-    </row>
-    <row r="1048576" spans="6:6">
-      <c r="F1048576" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11617,7 +11612,7 @@
       <selection activeCell="G1013" sqref="G1013"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -27623,7 +27618,7 @@
         <v>0.15624489795918367</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="15.4">
+    <row r="756" spans="1:10" ht="16">
       <c r="B756" s="20" t="s">
         <v>39</v>
       </c>
@@ -35288,13 +35283,13 @@
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.796875" customWidth="1"/>
-    <col min="5" max="5" width="35.265625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -35356,7 +35351,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="57">
+    <row r="4" spans="1:10" ht="64">
       <c r="B4" s="2"/>
       <c r="C4" s="10" t="s">
         <v>1195</v>
@@ -36157,10 +36152,10 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.53125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -36222,7 +36217,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="85.5">
+    <row r="5" spans="1:11" ht="112">
       <c r="B5" t="s">
         <v>1177</v>
       </c>
@@ -36294,7 +36289,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
